--- a/excelConfigParserTool/z_example/sampleWorkspace/configDir/BasicItem_Common.xlsx
+++ b/excelConfigParserTool/z_example/sampleWorkspace/configDir/BasicItem_Common.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>道具图标：直接调用美术资源图名</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>文字版式索引</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>NO_USE</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>LimitNum</t>
-  </si>
-  <si>
-    <t>Acquire</t>
   </si>
   <si>
     <t>icon100005</t>
@@ -289,34 +271,13 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ConsumeItem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"int32",
-"name":"ConsumeItem"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumeCoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{"type":"int32",
 "name":"ConsumeCoin"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FormatIndex</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{"type":"int32",
 "name":"FormatIndex"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -327,6 +288,11 @@
   </si>
   <si>
     <t>{"type":"list","keyName":"Id"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"string",
+"name":"ConsumeItem"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4339,9 +4305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4359,42 +4327,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -4412,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -4425,61 +4393,61 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4">
+        <v>800001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>70</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>800001</v>
+        <v>800002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>999</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4490,28 +4458,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>800002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>800005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4522,28 +4490,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>800005</v>
+        <v>800011</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5000</v>
-      </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4554,13 +4522,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>800011</v>
+        <v>800017</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4572,10 +4540,10 @@
         <v>999</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4586,13 +4554,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>800017</v>
-      </c>
-      <c r="B9" t="s">
+        <v>800018</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -4601,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4618,28 +4586,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>800018</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>800019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F10">
-        <v>9999</v>
+        <v>999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4650,28 +4618,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>800019</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
+        <v>810001</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2000</v>
       </c>
       <c r="F11">
         <v>999</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4682,28 +4650,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>810001</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>810002</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F12">
         <v>999</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4714,28 +4682,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>810002</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>810003</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="F13">
         <v>999</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4746,28 +4714,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>810003</v>
+        <v>810004</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F14">
         <v>999</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4778,28 +4746,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>810004</v>
+        <v>810005</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="F15">
         <v>999</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4810,28 +4778,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>810005</v>
+        <v>810006</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F16">
         <v>999</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4842,28 +4810,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>810006</v>
+        <v>810007</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="F17">
         <v>999</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4874,28 +4842,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>810007</v>
+        <v>810008</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="F18">
         <v>999</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4906,28 +4874,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>810008</v>
+        <v>810009</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F19">
         <v>999</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4938,28 +4906,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>810009</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>810010</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F20">
         <v>999</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4970,28 +4938,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>810010</v>
+        <v>810011</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="4">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F21">
         <v>999</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5002,28 +4970,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>810011</v>
+        <v>810012</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7">
         <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F22">
         <v>999</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5034,28 +5002,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>810012</v>
+        <v>810013</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
         <v>4</v>
       </c>
       <c r="E23" s="4">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F23">
         <v>999</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5066,28 +5034,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>810013</v>
+        <v>810014</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D24" s="4">
         <v>4</v>
       </c>
       <c r="E24" s="4">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F24">
         <v>999</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5098,28 +5066,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>810014</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>810015</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F25">
         <v>999</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5130,28 +5098,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>810015</v>
+        <v>810016</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
       </c>
       <c r="E26" s="4">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F26">
         <v>999</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5162,28 +5130,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>810016</v>
+        <v>810017</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
       </c>
       <c r="E27" s="4">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F27">
         <v>999</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5194,28 +5162,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>810017</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>810018</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
       </c>
       <c r="E28" s="4">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F28">
         <v>999</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5226,28 +5194,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>810018</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>810019</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
       <c r="E29" s="4">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F29">
         <v>999</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5258,65 +5226,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>810019</v>
+        <v>810020</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
       </c>
       <c r="E30" s="4">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F30">
         <v>999</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>810020</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5800</v>
-      </c>
-      <c r="F31">
-        <v>999</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
         <v>0</v>
       </c>
     </row>
